--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0787D-F40E-4201-B559-6C8A2BAAEA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -373,16 +372,22 @@
 因應L6301放行新增記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>defCodeLikeAndCodeLike</t>
+  </si>
+  <si>
+    <t>DefCode %,AND Code %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -390,7 +395,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -485,7 +490,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -666,8 +671,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,23 +763,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -810,23 +798,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1002,22 +973,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="11"/>
+    <col min="7" max="7" width="36.5" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1149,7 +1120,7 @@
       </c>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="145.80000000000001">
+    <row r="10" spans="1:7" ht="148.5">
       <c r="A10" s="26">
         <f>A9+1</f>
         <v>2</v>
@@ -1243,7 +1214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.4">
+    <row r="14" spans="1:7" ht="33">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1421,20 +1392,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1559,6 +1530,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480E99A-1643-4E2D-BD04-7772CBD71946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -237,10 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y:啟用 , N:未啟用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DefType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,26 +366,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0:已放行, 1:未放行
+    <t>defCodeLikeAndCodeLike</t>
+  </si>
+  <si>
+    <t>DefCode %,AND Code %</t>
+  </si>
+  <si>
+    <t>Y:啟用
+N:未啟用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已放行
+1:未放行
 因應L6301放行新增記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defCodeLikeAndCodeLike</t>
-  </si>
-  <si>
-    <t>DefCode %,AND Code %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -395,7 +399,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -490,7 +494,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -671,8 +675,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,6 +767,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -798,6 +819,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -973,22 +1011,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="11"/>
+    <col min="7" max="7" width="36.44140625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -997,7 +1035,7 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>32</v>
@@ -1025,7 +1063,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="22"/>
@@ -1120,16 +1158,16 @@
       </c>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="148.5">
+    <row r="10" spans="1:7" ht="145.80000000000001">
       <c r="A10" s="26">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>35</v>
@@ -1172,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>37</v>
@@ -1190,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="32.4">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1211,19 +1249,19 @@
         <v>10</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>35</v>
@@ -1235,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1392,20 +1430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1422,123 +1460,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480E99A-1643-4E2D-BD04-7772CBD71946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11323C-1F72-42AB-A5E3-78C2090A9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,6 +381,14 @@
 1:未放行
 因應L6301放行新增記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defItemEq2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCode = ,AND DefType = ,AND Item %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1014,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1431,12 +1439,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1579,6 +1587,17 @@
         <v>59</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11323C-1F72-42AB-A5E3-78C2090A9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E13921C-B0A7-4F3E-9D9B-C26D538866F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -389,6 +389,26 @@
   <si>
     <t>DefCode = ,AND DefType = ,AND Item %</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小代碼長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大代碼長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因應QC1297單，新增設置代碼長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +539,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +705,15 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1022,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1190,7 +1225,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="26">
-        <f t="shared" ref="A11:A17" si="0">A10+1</f>
+        <f t="shared" ref="A11:A20" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -1285,49 +1320,51 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="B15" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>10</v>
+      <c r="G15" s="32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="26">
-        <v>6</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="B16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>10</v>
+      <c r="G16" s="32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1336,10 +1373,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>13</v>
@@ -1352,15 +1389,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1">
       <c r="A18" s="29">
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>9</v>
@@ -1372,18 +1409,40 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="26">
+        <v>6</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
@@ -1441,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E13921C-B0A7-4F3E-9D9B-C26D538866F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F16B6C-FE12-4383-8772-F765866782E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,23 +391,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最小代碼長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大代碼長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>因應QC1297單，新增設置代碼長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼最小長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼最大長度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinCodeLength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCodeLength</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -700,20 +700,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1073,10 +1073,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1088,8 +1088,8 @@
       <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1101,10 +1101,10 @@
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="27" t="s">
         <v>42</v>
       </c>
@@ -1114,10 +1114,10 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="24"/>
       <c r="D4" s="23"/>
       <c r="E4" s="22"/>
@@ -1125,10 +1125,10 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="24"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
@@ -1136,10 +1136,10 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="22"/>
@@ -1147,10 +1147,10 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="24"/>
       <c r="D7" s="23"/>
       <c r="E7" s="22"/>
@@ -1320,51 +1320,51 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="33">
-        <v>1</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>82</v>
+      <c r="G16" s="30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7">
